--- a/choreography/routines/routine_street_letsdance.xlsx
+++ b/choreography/routines/routine_street_letsdance.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="264">
   <si>
     <t xml:space="preserve">Start time</t>
   </si>
@@ -56,21 +56,21 @@
     <t xml:space="preserve">street_letsdance_p1.csv</t>
   </si>
   <si>
-    <t xml:space="preserve">true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pose-stand.csv</t>
-  </si>
-  <si>
     <t xml:space="preserve">false</t>
   </si>
   <si>
+    <t xml:space="preserve">pose_stand.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">start_only</t>
   </si>
   <si>
     <t xml:space="preserve">street_letsdance_p2.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
     <t xml:space="preserve">acro2_backflip.csv</t>
   </si>
   <si>
@@ -522,9 +522,6 @@
   </si>
   <si>
     <t xml:space="preserve">pose_split_l.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pose_stand.csv</t>
   </si>
   <si>
     <t xml:space="preserve">pose_stand_legs_only.csv</t>
@@ -1003,55 +1000,55 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1382,7 +1379,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2:B9"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1461,11 +1458,11 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>144400</v>
+        <v>144860</v>
       </c>
       <c r="B3" s="10" t="str">
         <f aca="false">INT(A3/60000) &amp; ":" &amp; INT(MOD(A3/1000, 60)) &amp; "." &amp; TEXT(INT(MOD(A3/1, 1000)), "000")</f>
-        <v>2:24.400</v>
+        <v>2:24.860</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>9</v>
@@ -1475,10 +1472,10 @@
       </c>
       <c r="E3" s="8" t="str">
         <f aca="false">INDEX(movelist!B:B, MATCH($D3, movelist!A:A, 0))</f>
-        <v>1000</v>
+        <v>33</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="5" t="n">
         <v>45</v>
@@ -1500,17 +1497,17 @@
         <v>2:30.800</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="E4" s="8" t="str">
         <f aca="false">INDEX(movelist!B:B, MATCH($D4, movelist!A:A, 0))</f>
         <v>84667</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>45</v>
@@ -1524,22 +1521,25 @@
       <c r="J4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>157000</v>
+      </c>
       <c r="B5" s="10" t="str">
         <f aca="false">INT(A5/60000) &amp; ":" &amp; INT(MOD(A5/1000, 60)) &amp; "." &amp; TEXT(INT(MOD(A5/1, 1000)), "000")</f>
-        <v>0:0.000</v>
+        <v>2:37.000</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="8" t="str">
         <f aca="false">INDEX(movelist!B:B, MATCH($D5, movelist!A:A, 0))</f>
         <v>84667</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>45</v>
@@ -1553,27 +1553,35 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <f aca="false">A5+90430</f>
+        <v>247430</v>
+      </c>
       <c r="B6" s="10" t="str">
         <f aca="false">INT(A6/60000) &amp; ":" &amp; INT(MOD(A6/1000, 60)) &amp; "." &amp; TEXT(INT(MOD(A6/1, 1000)), "000")</f>
-        <v>0:0.000</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8" t="e">
+        <v>4:7.430</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="str">
         <f aca="false">INDEX(movelist!B:B, MATCH($D6, movelist!A:A, 0))</f>
-        <v>#N/A</v>
+        <v>33</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>45</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="8"/>
     </row>
@@ -1589,7 +1597,7 @@
         <v>#N/A</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>45</v>
@@ -1600,7 +1608,9 @@
       <c r="I7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="10" t="str">
@@ -1614,7 +1624,7 @@
         <v>#N/A</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>45</v>
@@ -1639,7 +1649,7 @@
         <v>#N/A</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>45</v>
@@ -1664,7 +1674,7 @@
         <v>#N/A</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>45</v>
@@ -1689,7 +1699,7 @@
         <v>#N/A</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>45</v>
@@ -1714,7 +1724,7 @@
         <v>#N/A</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>45</v>
@@ -1739,7 +1749,7 @@
         <v>#N/A</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>45</v>
@@ -1764,7 +1774,7 @@
         <v>#N/A</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>45</v>
@@ -1789,7 +1799,7 @@
         <v>#N/A</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>45</v>
@@ -1814,7 +1824,7 @@
         <v>#N/A</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>45</v>
@@ -1839,7 +1849,7 @@
         <v>#N/A</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>45</v>
@@ -1864,7 +1874,7 @@
         <v>#N/A</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>45</v>
@@ -1889,7 +1899,7 @@
         <v>#N/A</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>45</v>
@@ -1914,7 +1924,7 @@
         <v>#N/A</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>45</v>
@@ -2052,8 +2062,8 @@
   </sheetPr>
   <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="1" sqref="B2:B9 A24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B78" activeCellId="0" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2673,12 +2683,8 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>155</v>
-      </c>
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="13" t="s">
@@ -2754,7 +2760,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="13" t="s">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>158</v>
@@ -2762,7 +2768,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>158</v>
@@ -2770,7 +2776,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>158</v>
@@ -2778,7 +2784,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>158</v>
@@ -2786,15 +2792,15 @@
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B92" s="13" t="s">
         <v>171</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>79</v>
@@ -2802,47 +2808,47 @@
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B94" s="13" t="s">
         <v>174</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B95" s="13" t="s">
         <v>176</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B98" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B99" s="13" t="s">
         <v>155</v>
@@ -2850,55 +2856,55 @@
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B102" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B103" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B106" s="13" t="s">
         <v>79</v>
@@ -2906,7 +2912,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B107" s="13" t="s">
         <v>79</v>
@@ -2914,7 +2920,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B108" s="13" t="s">
         <v>79</v>
@@ -2922,42 +2928,42 @@
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B109" s="13" t="s">
         <v>194</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B110" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B111" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B112" s="13" t="s">
         <v>200</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B113" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2965,44 +2971,44 @@
         <v>10</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B116" s="13" t="s">
         <v>206</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B117" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B118" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B119" s="13" t="s">
         <v>19</v>
@@ -3010,47 +3016,47 @@
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B120" s="13" t="s">
         <v>213</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B121" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B123" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="B123" s="13" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B124" s="13" t="s">
         <v>220</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B125" s="13" t="s">
         <v>97</v>
@@ -3058,79 +3064,79 @@
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B126" s="13" t="s">
         <v>223</v>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B127" s="13" t="s">
         <v>225</v>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B128" s="13" t="s">
         <v>227</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B130" s="13" t="s">
         <v>230</v>
-      </c>
-      <c r="B130" s="13" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B131" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B133" s="13" t="s">
         <v>235</v>
-      </c>
-      <c r="B133" s="13" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B134" s="13" t="s">
         <v>237</v>
-      </c>
-      <c r="B134" s="13" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B135" s="13" t="s">
         <v>29</v>
@@ -3138,7 +3144,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B136" s="13" t="s">
         <v>29</v>
@@ -3146,39 +3152,39 @@
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B137" s="13" t="s">
         <v>241</v>
-      </c>
-      <c r="B137" s="13" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B138" s="13" t="s">
         <v>243</v>
-      </c>
-      <c r="B138" s="13" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B139" s="13" t="s">
         <v>245</v>
-      </c>
-      <c r="B139" s="13" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B140" s="13" t="s">
         <v>247</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B141" s="13" t="s">
         <v>79</v>
@@ -3186,7 +3192,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B142" s="13" t="s">
         <v>79</v>
@@ -3194,74 +3200,74 @@
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="B143" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B143" s="13" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="B144" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B144" s="13" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="B145" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B145" s="13" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B146" s="13" t="s">
         <v>254</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="B147" s="0" t="s">
         <v>255</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B148" s="13" t="s">
         <v>257</v>
-      </c>
-      <c r="B148" s="0" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B149" s="13" t="s">
         <v>259</v>
-      </c>
-      <c r="B149" s="0" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B150" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="B150" s="0" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B151" s="13" t="s">
         <v>263</v>
-      </c>
-      <c r="B151" s="0" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
